--- a/Department/EmployeeList.xlsx
+++ b/Department/EmployeeList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\UiPath\EmailAutomationRPA\Department\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A502F75-60F8-44D4-9993-30DDC6051886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1199957A-E48B-4F5E-B584-01E019385699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Employee_Name</t>
   </si>
@@ -121,99 +121,6 @@
     <t>Employee 30</t>
   </si>
   <si>
-    <t>employee1@company.com</t>
-  </si>
-  <si>
-    <t>employee2@company.com</t>
-  </si>
-  <si>
-    <t>employee3@company.com</t>
-  </si>
-  <si>
-    <t>employee4@company.com</t>
-  </si>
-  <si>
-    <t>employee5@company.com</t>
-  </si>
-  <si>
-    <t>employee6@company.com</t>
-  </si>
-  <si>
-    <t>employee7@company.com</t>
-  </si>
-  <si>
-    <t>employee8@company.com</t>
-  </si>
-  <si>
-    <t>employee9@company.com</t>
-  </si>
-  <si>
-    <t>employee10@company.com</t>
-  </si>
-  <si>
-    <t>employee11@company.com</t>
-  </si>
-  <si>
-    <t>employee12@company.com</t>
-  </si>
-  <si>
-    <t>employee13@company.com</t>
-  </si>
-  <si>
-    <t>employee14@company.com</t>
-  </si>
-  <si>
-    <t>employee15@company.com</t>
-  </si>
-  <si>
-    <t>employee16@company.com</t>
-  </si>
-  <si>
-    <t>employee17@company.com</t>
-  </si>
-  <si>
-    <t>employee18@company.com</t>
-  </si>
-  <si>
-    <t>employee19@company.com</t>
-  </si>
-  <si>
-    <t>employee20@company.com</t>
-  </si>
-  <si>
-    <t>employee21@company.com</t>
-  </si>
-  <si>
-    <t>employee22@company.com</t>
-  </si>
-  <si>
-    <t>employee23@company.com</t>
-  </si>
-  <si>
-    <t>employee24@company.com</t>
-  </si>
-  <si>
-    <t>employee25@company.com</t>
-  </si>
-  <si>
-    <t>employee26@company.com</t>
-  </si>
-  <si>
-    <t>employee27@company.com</t>
-  </si>
-  <si>
-    <t>employee28@company.com</t>
-  </si>
-  <si>
-    <t>employee29@company.com</t>
-  </si>
-  <si>
-    <t>employee30@company.com</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
     <t>Customer Service</t>
   </si>
   <si>
@@ -227,13 +134,28 @@
   </si>
   <si>
     <t>Human Resources</t>
+  </si>
+  <si>
+    <t>tramnp22411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>longph22411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenbd22411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenltt22411@st.uel.edu.vn</t>
+  </si>
+  <si>
+    <t>IT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +167,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,16 +212,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -308,9 +241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,9 +281,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,26 +316,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -435,26 +351,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,13 +530,13 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -656,333 +555,365 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>37</v>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>38</v>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>43</v>
+      <c r="B12" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>45</v>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>48</v>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>49</v>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>50</v>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>52</v>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>53</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>54</v>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
+      <c r="B24" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
-        <v>56</v>
+      <c r="B25" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>57</v>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
-        <v>58</v>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>59</v>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31" t="s">
-        <v>62</v>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0763AFB8-2596-40F2-B98F-B011CB46D483}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{F5D725D6-8530-4882-9FD5-66E34A10ED87}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7D83B686-F957-4471-8D8F-3D2A87D40ABB}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{92FF1E13-891F-4A77-9AC1-046782C84A90}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{FFE925EC-7AF1-4182-A0EF-D97BA047902D}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{8039309D-0457-4997-AE05-28A96E591AFE}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{AF686705-41E0-4DC3-873E-181523240BEF}"/>
+    <hyperlink ref="B18" r:id="rId8" xr:uid="{1BDC0AF7-0E95-4C61-B305-6DD9409CE03E}"/>
+    <hyperlink ref="B22" r:id="rId9" xr:uid="{286C5F9D-810E-4596-810A-4B9A9A330852}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{711C7C6E-3F8E-40C0-9F48-43F73B054F1C}"/>
+    <hyperlink ref="B30" r:id="rId11" xr:uid="{60EE1194-1DFA-4EAB-ADE8-36B0716745A9}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{C0600F05-0040-4108-A2CB-CDFD53D39EAB}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{19A87084-CAFC-4E66-9AB6-22C1FF8D08E2}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{1ECD64D3-B346-4B55-AAD9-1E05A882E273}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{190496E9-BDAB-4C68-80A4-7F4F81BF2E4E}"/>
+    <hyperlink ref="B23" r:id="rId16" xr:uid="{FD9C2308-149A-4E30-BD4B-A91E5C89C428}"/>
+    <hyperlink ref="B27" r:id="rId17" xr:uid="{1193CAB4-6175-4557-B414-A62EA8B355BC}"/>
+    <hyperlink ref="B31" r:id="rId18" display="nguyenltt22411@st.uel.edu.vn" xr:uid="{217E0FF3-9E80-428B-849A-DCE8CFAE4ECA}"/>
+    <hyperlink ref="B8" r:id="rId19" xr:uid="{201C6590-BE7F-4D8B-91BA-0D9802536833}"/>
+    <hyperlink ref="B12" r:id="rId20" xr:uid="{C0F61ADF-A69C-4CBB-AE21-2FCBED8516DC}"/>
+    <hyperlink ref="B16" r:id="rId21" xr:uid="{9C0CEF8E-A267-449C-A85E-E4FF7EFEEFE4}"/>
+    <hyperlink ref="B20" r:id="rId22" xr:uid="{3C1DBC67-CC6D-4E0F-9B2F-D1365CE01BE4}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{F83E46ED-3A76-4B33-8C56-0CBFB67ED901}"/>
+    <hyperlink ref="B28" r:id="rId24" xr:uid="{E6666EEA-BE1E-49B8-80D7-C98A16EF4D4B}"/>
+    <hyperlink ref="B9" r:id="rId25" xr:uid="{EF5920B3-B7A4-48CD-BCE6-E550C1D0840D}"/>
+    <hyperlink ref="B13" r:id="rId26" xr:uid="{E823A1FF-5B4D-4DAD-B078-A44599B111B8}"/>
+    <hyperlink ref="B17" r:id="rId27" xr:uid="{D657A650-9DA9-4C73-9CA0-01326117B456}"/>
+    <hyperlink ref="B21" r:id="rId28" xr:uid="{850C19F5-B269-41E8-A000-30C9DEBED3A9}"/>
+    <hyperlink ref="B25" r:id="rId29" xr:uid="{E30A9786-3E4C-40B2-BCE0-37B7E0487728}"/>
+    <hyperlink ref="B29" r:id="rId30" xr:uid="{BDA3045A-6CA9-4DEC-A3A5-A820160E8BE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>